--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\demo\MOVIE_DEMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD54DEE-DDCF-4A8F-A44D-4815C866299F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76F7EDA-46AD-4340-B00B-1AF9F2F01437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDAA33DD-6384-4628-814F-4A2E7759CCC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -84,7 +84,10 @@
     <t>Admin Page, Admin Template</t>
   </si>
   <si>
-    <t>HomePage, DeTailPage, LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage</t>
+    <t>HomePage, DeTailPage</t>
+  </si>
+  <si>
+    <t>LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage</t>
   </si>
 </sst>
 </file>
@@ -354,6 +357,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,24 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B658C753-14E4-4BEE-9C94-6C7CA364424D}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -752,9 +755,9 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -775,20 +778,20 @@
         <v>45630</v>
       </c>
       <c r="H2" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -796,25 +799,33 @@
       <c r="C3" s="7">
         <v>45600</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="F3" s="7">
+        <v>45600</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45630</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -822,41 +833,68 @@
       <c r="C4" s="7">
         <v>45600</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45600</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <v>45600</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="7">
         <v>45630</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H5" s="13">
         <v>0.8</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
     </row>
-    <row r="8" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J5:L5"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D4 H2:H4">
+  <conditionalFormatting sqref="D2:D5 H2:H5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76F7EDA-46AD-4340-B00B-1AF9F2F01437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546C3AB-86BB-419D-812E-434356D719F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDAA33DD-6384-4628-814F-4A2E7759CCC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -78,16 +78,13 @@
     <t>Hưng làm</t>
   </si>
   <si>
-    <t>Components, Redux, Service, Templates(Auth, Home,User)</t>
-  </si>
-  <si>
     <t>Admin Page, Admin Template</t>
   </si>
   <si>
-    <t>HomePage, DeTailPage</t>
-  </si>
-  <si>
-    <t>LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage</t>
+    <t>Components, Redux, Service</t>
+  </si>
+  <si>
+    <t>HomePage, DeTailPage, LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage, Templates(Auth, Home,User)</t>
   </si>
 </sst>
 </file>
@@ -709,16 +706,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B658C753-14E4-4BEE-9C94-6C7CA364424D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.25">
@@ -755,9 +752,9 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -778,7 +775,7 @@
         <v>45630</v>
       </c>
       <c r="H2" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>10</v>
@@ -791,7 +788,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -799,31 +796,23 @@
       <c r="C3" s="7">
         <v>45600</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7">
-        <v>45600</v>
-      </c>
-      <c r="G3" s="7">
-        <v>45630</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -837,64 +826,37 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>45600</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45630</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
       <c r="J4" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45600</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45600</v>
-      </c>
-      <c r="G5" s="7">
-        <v>45630</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J5:L5"/>
     <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D5 H2:H5">
+  <conditionalFormatting sqref="D2:D4 H2:H4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\demo\Cinema_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9546C3AB-86BB-419D-812E-434356D719F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7A92D-120C-47E9-BCBE-845D5302BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Components, Redux, Service</t>
   </si>
   <si>
-    <t>HomePage, DeTailPage, LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage, Templates(Auth, Home,User)</t>
+    <t>HomePage, DeTailPage, LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage, UserInfoPage, Templates(Auth, Home,User)</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>

--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\demo\Cinema_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B7A92D-120C-47E9-BCBE-845D5302BA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79692ACD-30CF-4C28-AF61-D730DF0C53B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -69,15 +69,9 @@
     <t>31/03</t>
   </si>
   <si>
-    <t>Hưng làm, đạt test</t>
-  </si>
-  <si>
     <t>Đạt làm, Hưng test</t>
   </si>
   <si>
-    <t>Hưng làm</t>
-  </si>
-  <si>
     <t>Admin Page, Admin Template</t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t>HomePage, DeTailPage, LoginPage, RegisterPage, ScreenPage, Page404, HistoryBookingPage, UserInfoPage, Templates(Auth, Home,User)</t>
+  </si>
+  <si>
+    <t>Hưng làm, hưng test</t>
+  </si>
+  <si>
+    <t>20/4/2024</t>
+  </si>
+  <si>
+    <t>Đạt, Hưng</t>
+  </si>
+  <si>
+    <t>Hưng làm, hưng, đạt test</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -344,15 +350,8 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -710,7 +709,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -746,49 +745,49 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
-        <v>45600</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="7">
         <v>45600</v>
       </c>
-      <c r="G2" s="7">
-        <v>45630</v>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="10">
         <v>0.8</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>11</v>
@@ -796,25 +795,33 @@
       <c r="C3" s="7">
         <v>45600</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="F3" s="7">
+        <v>45600</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -822,10 +829,10 @@
       <c r="C4" s="7">
         <v>45600</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="7">
@@ -834,17 +841,17 @@
       <c r="G4" s="7">
         <v>45630</v>
       </c>
-      <c r="H4" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
+      <c r="J4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/template_task.xlsx
+++ b/template_task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thái Hưng\IT\cybersoft\FrontEnd\Session30-45\BC64_ReactJS_Capstone_ThaiHung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79692ACD-30CF-4C28-AF61-D730DF0C53B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E0C774-E3C8-4F75-8F2F-0D3A417F2F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Hưng làm, hưng, đạt test</t>
+  </si>
+  <si>
+    <t>22/4/2024</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,7 +774,7 @@
         <v>45600</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10">
         <v>0.8</v>
@@ -805,7 +808,7 @@
         <v>45600</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" s="10">
         <v>0.8</v>
